--- a/telegram-bot/entities/mylibs/one_motoring.xlsx
+++ b/telegram-bot/entities/mylibs/one_motoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craps\OneDrive\Documents\GitHub\SNDGG-SMU-IS483\telegram-bot\entities\mylibs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\SNDGG-SMU-IS483\telegram-bot\entities\mylibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F258E87-7A4A-4EBC-B564-6799DF27279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35FC85B-FA53-4658-820F-2FD6CECEA5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="1201">
   <si>
     <t>carpark</t>
   </si>
@@ -3634,6 +3634,12 @@
   </si>
   <si>
     <t>Attractions</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longtitude</t>
   </si>
 </sst>
 </file>
@@ -4342,10 +4348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533694E8-19A3-460F-9CFB-68CA64797D7B}">
-  <dimension ref="A1:F413"/>
+  <dimension ref="A1:H413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4358,7 +4364,7 @@
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4377,8 +4383,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -4397,8 +4409,14 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>1.3010451000000001</v>
+      </c>
+      <c r="H2">
+        <v>103.8385792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
@@ -4417,8 +4435,14 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>1.3110385</v>
+      </c>
+      <c r="H3">
+        <v>103.83726179999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>51</v>
       </c>
@@ -4437,8 +4461,14 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="225" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>1.3028594</v>
+      </c>
+      <c r="H4">
+        <v>103.84017059999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
@@ -4457,8 +4487,14 @@
       <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>1.3040958</v>
+      </c>
+      <c r="H5">
+        <v>103.8297847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>58</v>
       </c>
@@ -4477,8 +4513,14 @@
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>1.3016866</v>
+      </c>
+      <c r="H6">
+        <v>103.8365735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -4497,8 +4539,14 @@
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>1.3073022999999999</v>
+      </c>
+      <c r="H7">
+        <v>103.8288259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -4517,8 +4565,14 @@
       <c r="F8" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>1.2991919000000001</v>
+      </c>
+      <c r="H8">
+        <v>103.838548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -4537,8 +4591,14 @@
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>1.3007654</v>
+      </c>
+      <c r="H9">
+        <v>103.841536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -4557,8 +4617,14 @@
       <c r="F10" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>1.3071782999999999</v>
+      </c>
+      <c r="H10">
+        <v>103.8285872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>76</v>
       </c>
@@ -4577,8 +4643,14 @@
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>1.3080008000000001</v>
+      </c>
+      <c r="H11">
+        <v>103.83563169999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -4597,8 +4669,14 @@
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>1.3070854000000001</v>
+      </c>
+      <c r="H12">
+        <v>103.83330340000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
@@ -4617,8 +4695,14 @@
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>1.3056257</v>
+      </c>
+      <c r="H13">
+        <v>103.8301534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>84</v>
       </c>
@@ -4637,8 +4721,14 @@
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>1.3061666999999999</v>
+      </c>
+      <c r="H14">
+        <v>103.8284991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -4657,8 +4747,14 @@
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>1.3050877000000001</v>
+      </c>
+      <c r="H15">
+        <v>103.82871799999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>90</v>
       </c>
@@ -4677,8 +4773,14 @@
       <c r="F16" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>1.3084773999999999</v>
+      </c>
+      <c r="H16">
+        <v>103.834405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>94</v>
       </c>
@@ -4697,8 +4799,14 @@
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>1.3065838000000001</v>
+      </c>
+      <c r="H17">
+        <v>103.8331003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>97</v>
       </c>
@@ -4717,8 +4825,14 @@
       <c r="F18" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>1.2996958000000001</v>
+      </c>
+      <c r="H18">
+        <v>103.83072610000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>100</v>
       </c>
@@ -4737,8 +4851,14 @@
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>1.3019202999999999</v>
+      </c>
+      <c r="H19">
+        <v>103.8358673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -4757,8 +4877,14 @@
       <c r="F20" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>1.3032367</v>
+      </c>
+      <c r="H20">
+        <v>103.8367315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>104</v>
       </c>
@@ -4777,8 +4903,14 @@
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>1.3023125</v>
+      </c>
+      <c r="H21">
+        <v>103.8410344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>108</v>
       </c>
@@ -4797,8 +4929,14 @@
       <c r="F22" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="185.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>1.3061653</v>
+      </c>
+      <c r="H22">
+        <v>103.83100020000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
@@ -4817,8 +4955,14 @@
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>1.3039288</v>
+      </c>
+      <c r="H23">
+        <v>103.8319492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>114</v>
       </c>
@@ -4837,8 +4981,14 @@
       <c r="F24" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="238.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>1.3051925</v>
+      </c>
+      <c r="H24">
+        <v>103.8305905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>119</v>
       </c>
@@ -4857,8 +5007,14 @@
       <c r="F25" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>1.3045795</v>
+      </c>
+      <c r="H25">
+        <v>103.8340621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>123</v>
       </c>
@@ -4877,8 +5033,14 @@
       <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>1.3020878</v>
+      </c>
+      <c r="H26">
+        <v>103.8363403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>126</v>
       </c>
@@ -4897,8 +5059,14 @@
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="185.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>1.3052550999999999</v>
+      </c>
+      <c r="H27">
+        <v>103.8354896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -4917,8 +5085,14 @@
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>1.3025572000000001</v>
+      </c>
+      <c r="H28">
+        <v>103.834568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>132</v>
       </c>
@@ -4937,8 +5111,14 @@
       <c r="F29" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>1.3014889999999999</v>
+      </c>
+      <c r="H29">
+        <v>103.83731779999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -4957,8 +5137,14 @@
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>1.3007639</v>
+      </c>
+      <c r="H30">
+        <v>103.8397236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>139</v>
       </c>
@@ -4977,8 +5163,14 @@
       <c r="F31" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>1.2975022</v>
+      </c>
+      <c r="H31">
+        <v>103.8385749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>143</v>
       </c>
@@ -4997,8 +5189,14 @@
       <c r="F32" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>1.3079719000000001</v>
+      </c>
+      <c r="H32">
+        <v>103.8282932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>145</v>
       </c>
@@ -5017,8 +5215,14 @@
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>1.3009767999999999</v>
+      </c>
+      <c r="H33">
+        <v>103.8410562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>148</v>
       </c>
@@ -5037,8 +5241,14 @@
       <c r="F34" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>1.3065228</v>
+      </c>
+      <c r="H34">
+        <v>103.827668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>151</v>
       </c>
@@ -5057,8 +5267,14 @@
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>1.3072292999999999</v>
+      </c>
+      <c r="H35">
+        <v>103.8293323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>154</v>
       </c>
@@ -5077,8 +5293,14 @@
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>1.3007002000000001</v>
+      </c>
+      <c r="H36">
+        <v>103.8394225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>158</v>
       </c>
@@ -5097,8 +5319,14 @@
       <c r="F37" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>1.3064663999999999</v>
+      </c>
+      <c r="H37">
+        <v>103.8321918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>162</v>
       </c>
@@ -5117,8 +5345,14 @@
       <c r="F38" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>1.3065420000000001</v>
+      </c>
+      <c r="H38">
+        <v>103.8295263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>166</v>
       </c>
@@ -5137,8 +5371,14 @@
       <c r="F39" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>1.3075452999999999</v>
+      </c>
+      <c r="H39">
+        <v>103.8299672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>169</v>
       </c>
@@ -5157,8 +5397,14 @@
       <c r="F40" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>1.3009188</v>
+      </c>
+      <c r="H40">
+        <v>103.83776949999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>171</v>
       </c>
@@ -5177,8 +5423,14 @@
       <c r="F41" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="211.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>1.3039632999999999</v>
+      </c>
+      <c r="H41">
+        <v>103.8360565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>175</v>
       </c>
@@ -5197,8 +5449,14 @@
       <c r="F42" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>1.2988932</v>
+      </c>
+      <c r="H42">
+        <v>103.8436672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>31</v>
       </c>
@@ -5217,8 +5475,14 @@
       <c r="F43" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>1.3000678000000001</v>
+      </c>
+      <c r="H43">
+        <v>103.8447831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>182</v>
       </c>
@@ -5237,8 +5501,14 @@
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>1.3031364999999999</v>
+      </c>
+      <c r="H44">
+        <v>103.8360737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>186</v>
       </c>
@@ -5257,8 +5527,14 @@
       <c r="F45" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>1.3047203000000001</v>
+      </c>
+      <c r="H45">
+        <v>103.82489390000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
@@ -5277,8 +5553,14 @@
       <c r="F46" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>1.3069694999999999</v>
+      </c>
+      <c r="H46">
+        <v>103.8319667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>193</v>
       </c>
@@ -5297,8 +5579,14 @@
       <c r="F47" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>1.3009732000000001</v>
+      </c>
+      <c r="H47">
+        <v>103.8357464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>196</v>
       </c>
@@ -5317,8 +5605,14 @@
       <c r="F48" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>1.3058787999999999</v>
+      </c>
+      <c r="H48">
+        <v>103.8329554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>199</v>
       </c>
@@ -5337,8 +5631,14 @@
       <c r="F49" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>1.3109649999999999</v>
+      </c>
+      <c r="H49">
+        <v>103.8264894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>202</v>
       </c>
@@ -5357,8 +5657,14 @@
       <c r="F50" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>1.3062932</v>
+      </c>
+      <c r="H50">
+        <v>103.8318472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>205</v>
       </c>
@@ -5377,8 +5683,14 @@
       <c r="F51" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>1.3058457999999999</v>
+      </c>
+      <c r="H51">
+        <v>103.8312426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>206</v>
       </c>
@@ -5397,8 +5709,14 @@
       <c r="F52" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>1.3118243999999999</v>
+      </c>
+      <c r="H52">
+        <v>103.8364761</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>209</v>
       </c>
@@ -5417,8 +5735,14 @@
       <c r="F53" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>1.3052151000000001</v>
+      </c>
+      <c r="H53">
+        <v>103.8329675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>211</v>
       </c>
@@ -5437,8 +5761,14 @@
       <c r="F54" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>1.2981621999999999</v>
+      </c>
+      <c r="H54">
+        <v>103.844132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>38</v>
       </c>
@@ -5457,8 +5787,14 @@
       <c r="F55" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>1.3052151000000001</v>
+      </c>
+      <c r="H55">
+        <v>103.8329675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>215</v>
       </c>
@@ -5477,8 +5813,14 @@
       <c r="F56" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>1.304834</v>
+      </c>
+      <c r="H56">
+        <v>103.8238271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>218</v>
       </c>
@@ -5497,8 +5839,14 @@
       <c r="F57" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>1.306246</v>
+      </c>
+      <c r="H57">
+        <v>103.8265506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>222</v>
       </c>
@@ -5517,8 +5865,14 @@
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>1.3001167</v>
+      </c>
+      <c r="H58">
+        <v>103.8455364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>224</v>
       </c>
@@ -5537,8 +5891,14 @@
       <c r="F59" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>1.2995083000000001</v>
+      </c>
+      <c r="H59">
+        <v>103.8477778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>227</v>
       </c>
@@ -5557,8 +5917,14 @@
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <v>1.3012253</v>
+      </c>
+      <c r="H60">
+        <v>103.83986520000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>40</v>
       </c>
@@ -5577,8 +5943,14 @@
       <c r="F61" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <v>1.3026882</v>
+      </c>
+      <c r="H61">
+        <v>103.83736949999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>233</v>
       </c>
@@ -5597,8 +5969,14 @@
       <c r="F62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>1.3001685000000001</v>
+      </c>
+      <c r="H62">
+        <v>103.8372952</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>237</v>
       </c>
@@ -5617,8 +5995,14 @@
       <c r="F63" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>1.2990659</v>
+      </c>
+      <c r="H63">
+        <v>103.8426999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>42</v>
       </c>
@@ -5637,8 +6021,14 @@
       <c r="F64" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>1.3047423</v>
+      </c>
+      <c r="H64">
+        <v>103.8305287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>243</v>
       </c>
@@ -5657,8 +6047,14 @@
       <c r="F65" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>1.2995479999999999</v>
+      </c>
+      <c r="H65">
+        <v>103.84128699999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>43</v>
       </c>
@@ -5677,8 +6073,14 @@
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>1.3037148000000001</v>
+      </c>
+      <c r="H66">
+        <v>103.8332642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>250</v>
       </c>
@@ -5697,8 +6099,14 @@
       <c r="F67" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>1.30718</v>
+      </c>
+      <c r="H67">
+        <v>103.8355304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>254</v>
       </c>
@@ -5717,8 +6125,14 @@
       <c r="F68" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>1.3058932999999999</v>
+      </c>
+      <c r="H68">
+        <v>103.8309201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>257</v>
       </c>
@@ -5737,8 +6151,14 @@
       <c r="F69" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>1.3690023</v>
+      </c>
+      <c r="H69">
+        <v>103.8481594</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>260</v>
       </c>
@@ -5757,8 +6177,14 @@
       <c r="F70" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>1.3256182000000001</v>
+      </c>
+      <c r="H70">
+        <v>103.8503965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>262</v>
       </c>
@@ -5777,8 +6203,14 @@
       <c r="F71" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>1.3227671999999999</v>
+      </c>
+      <c r="H71">
+        <v>103.851969</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>266</v>
       </c>
@@ -5797,8 +6229,14 @@
       <c r="F72" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>1.2966145</v>
+      </c>
+      <c r="H72">
+        <v>103.8540002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>269</v>
       </c>
@@ -5817,8 +6255,14 @@
       <c r="F73" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>1.3602401</v>
+      </c>
+      <c r="H73">
+        <v>103.8597793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>272</v>
       </c>
@@ -5837,8 +6281,14 @@
       <c r="F74" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>1.4360933</v>
+      </c>
+      <c r="H74">
+        <v>103.7859471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>275</v>
       </c>
@@ -5857,8 +6307,14 @@
       <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>1.3114516000000001</v>
+      </c>
+      <c r="H75">
+        <v>103.8561608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>279</v>
       </c>
@@ -5877,8 +6333,14 @@
       <c r="F76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>1.3920064000000001</v>
+      </c>
+      <c r="H76">
+        <v>103.89505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>281</v>
       </c>
@@ -5897,8 +6359,14 @@
       <c r="F77" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>1.3127217</v>
+      </c>
+      <c r="H77">
+        <v>103.8539823</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>284</v>
       </c>
@@ -5917,8 +6385,14 @@
       <c r="F78" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>1.3177979</v>
+      </c>
+      <c r="H78">
+        <v>103.8433497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>288</v>
       </c>
@@ -5937,8 +6411,14 @@
       <c r="F79" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>1.3873705000000001</v>
+      </c>
+      <c r="H79">
+        <v>103.8694069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>291</v>
       </c>
@@ -5957,8 +6437,14 @@
       <c r="F80" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>1.359469</v>
+      </c>
+      <c r="H80">
+        <v>103.8851289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>294</v>
       </c>
@@ -5977,8 +6463,14 @@
       <c r="F81" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81">
+        <v>1.3795596000000001</v>
+      </c>
+      <c r="H81">
+        <v>103.8880715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>298</v>
       </c>
@@ -5997,8 +6489,14 @@
       <c r="F82" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <v>1.372455</v>
+      </c>
+      <c r="H82">
+        <v>103.8938277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>302</v>
       </c>
@@ -6017,8 +6515,14 @@
       <c r="F83" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G83">
+        <v>1.376123</v>
+      </c>
+      <c r="H83">
+        <v>103.8791803</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>25</v>
       </c>
@@ -6037,8 +6541,14 @@
       <c r="F84" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84">
+        <v>1.3506807999999999</v>
+      </c>
+      <c r="H84">
+        <v>103.8487631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>309</v>
       </c>
@@ -6057,8 +6567,14 @@
       <c r="F85" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G85">
+        <v>1.3488792000000001</v>
+      </c>
+      <c r="H85">
+        <v>103.8409777</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>312</v>
       </c>
@@ -6077,8 +6593,14 @@
       <c r="F86" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G86">
+        <v>1.3099676</v>
+      </c>
+      <c r="H86">
+        <v>103.85542510000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>314</v>
       </c>
@@ -6097,8 +6619,14 @@
       <c r="F87" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G87">
+        <v>1.3507155</v>
+      </c>
+      <c r="H87">
+        <v>103.8720247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>317</v>
       </c>
@@ -6117,8 +6645,14 @@
       <c r="F88" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G88">
+        <v>1.4293477999999999</v>
+      </c>
+      <c r="H88">
+        <v>103.8358671</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>320</v>
       </c>
@@ -6137,8 +6671,14 @@
       <c r="F89" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G89">
+        <v>1.3200635000000001</v>
+      </c>
+      <c r="H89">
+        <v>103.8445845</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>324</v>
       </c>
@@ -6157,8 +6697,14 @@
       <c r="F90" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G90">
+        <v>1.3107101999999999</v>
+      </c>
+      <c r="H90">
+        <v>103.85574010000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>328</v>
       </c>
@@ -6177,8 +6723,14 @@
       <c r="F91" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G91">
+        <v>1.2891543000000001</v>
+      </c>
+      <c r="H91">
+        <v>103.8504863</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>332</v>
       </c>
@@ -6197,8 +6749,14 @@
       <c r="F92" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G92">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H92">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>335</v>
       </c>
@@ -6217,8 +6775,14 @@
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G93">
+        <v>1.3922623999999999</v>
+      </c>
+      <c r="H93">
+        <v>103.9044463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>337</v>
       </c>
@@ -6237,8 +6801,14 @@
       <c r="F94" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G94">
+        <v>1.4414712000000001</v>
+      </c>
+      <c r="H94">
+        <v>103.8245883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>340</v>
       </c>
@@ -6257,8 +6827,14 @@
       <c r="F95" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G95">
+        <v>1.3251455000000001</v>
+      </c>
+      <c r="H95">
+        <v>103.8509767</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>343</v>
       </c>
@@ -6277,8 +6853,14 @@
       <c r="F96" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G96">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H96">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>346</v>
       </c>
@@ -6297,8 +6879,14 @@
       <c r="F97" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G97">
+        <v>1.3208321999999999</v>
+      </c>
+      <c r="H97">
+        <v>103.8441474</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>350</v>
       </c>
@@ -6317,8 +6905,14 @@
       <c r="F98" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G98">
+        <v>1.4481945000000001</v>
+      </c>
+      <c r="H98">
+        <v>103.81962470000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>353</v>
       </c>
@@ -6337,8 +6931,14 @@
       <c r="F99" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G99">
+        <v>1.3050630999999999</v>
+      </c>
+      <c r="H99">
+        <v>103.8514261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>356</v>
       </c>
@@ -6357,8 +6957,14 @@
       <c r="F100" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G100">
+        <v>1.3548</v>
+      </c>
+      <c r="H100">
+        <v>103.8308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>360</v>
       </c>
@@ -6377,8 +6983,14 @@
       <c r="F101" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G101">
+        <v>1.3320022</v>
+      </c>
+      <c r="H101">
+        <v>103.84943389999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>364</v>
       </c>
@@ -6397,8 +7009,14 @@
       <c r="F102" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <v>1.3171849</v>
+      </c>
+      <c r="H102">
+        <v>103.8436045</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>367</v>
       </c>
@@ -6417,8 +7035,14 @@
       <c r="F103" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G103">
+        <v>1.3130417999999999</v>
+      </c>
+      <c r="H103">
+        <v>103.8553782</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>370</v>
       </c>
@@ -6437,8 +7061,14 @@
       <c r="F104" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G104">
+        <v>1.3200049</v>
+      </c>
+      <c r="H104">
+        <v>103.8439137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>373</v>
       </c>
@@ -6457,8 +7087,14 @@
       <c r="F105" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G105">
+        <v>1.4064411999999999</v>
+      </c>
+      <c r="H105">
+        <v>103.90208459999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>376</v>
       </c>
@@ -6477,8 +7113,14 @@
       <c r="F106" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G106">
+        <v>1.39716</v>
+      </c>
+      <c r="H106">
+        <v>103.74683520000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>380</v>
       </c>
@@ -6497,8 +7139,14 @@
       <c r="F107" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G107">
+        <v>1.3104579999999999</v>
+      </c>
+      <c r="H107">
+        <v>103.8641669</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>8</v>
       </c>
@@ -6517,8 +7165,14 @@
       <c r="F108" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G108">
+        <v>1.3247161999999999</v>
+      </c>
+      <c r="H108">
+        <v>103.929343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>386</v>
       </c>
@@ -6537,8 +7191,14 @@
       <c r="F109" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G109">
+        <v>1.3525967999999999</v>
+      </c>
+      <c r="H109">
+        <v>103.9436741</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>390</v>
       </c>
@@ -6557,8 +7217,14 @@
       <c r="F110" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="225" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G110">
+        <v>1.3510871</v>
+      </c>
+      <c r="H110">
+        <v>103.98721759999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>392</v>
       </c>
@@ -6577,8 +7243,14 @@
       <c r="F111" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G111">
+        <v>1.3582691</v>
+      </c>
+      <c r="H111">
+        <v>103.9888576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>394</v>
       </c>
@@ -6597,8 +7269,14 @@
       <c r="F112" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G112">
+        <v>1.3362189</v>
+      </c>
+      <c r="H112">
+        <v>103.9825549</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>396</v>
       </c>
@@ -6617,8 +7295,14 @@
       <c r="F113" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G113">
+        <v>1.3342731999999999</v>
+      </c>
+      <c r="H113">
+        <v>103.9627387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>400</v>
       </c>
@@ -6637,8 +7321,14 @@
       <c r="F114" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G114">
+        <v>1.3904643999999999</v>
+      </c>
+      <c r="H114">
+        <v>103.98605569999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>404</v>
       </c>
@@ -6657,8 +7347,14 @@
       <c r="F115" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="291" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G115">
+        <v>1.3147664999999999</v>
+      </c>
+      <c r="H115">
+        <v>103.8934127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>408</v>
       </c>
@@ -6677,8 +7373,14 @@
       <c r="F116" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="211.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G116">
+        <v>1.3774242999999999</v>
+      </c>
+      <c r="H116">
+        <v>103.9549567</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>412</v>
       </c>
@@ -6697,8 +7399,14 @@
       <c r="F117" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G117">
+        <v>1.3798904000000001</v>
+      </c>
+      <c r="H117">
+        <v>103.95496439999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>415</v>
       </c>
@@ -6717,8 +7425,14 @@
       <c r="F118" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G118">
+        <v>1.3007842000000001</v>
+      </c>
+      <c r="H118">
+        <v>103.9121866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>417</v>
       </c>
@@ -6737,8 +7451,14 @@
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G119">
+        <v>1.3427145</v>
+      </c>
+      <c r="H119">
+        <v>103.9530415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>419</v>
       </c>
@@ -6757,8 +7477,14 @@
       <c r="F120" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G120">
+        <v>1.3031710000000001</v>
+      </c>
+      <c r="H120">
+        <v>103.9047767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>421</v>
       </c>
@@ -6777,8 +7503,14 @@
       <c r="F121" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G121">
+        <v>1.3047255</v>
+      </c>
+      <c r="H121">
+        <v>103.9046894</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>425</v>
       </c>
@@ -6797,8 +7529,14 @@
       <c r="F122" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G122">
+        <v>1.3050837</v>
+      </c>
+      <c r="H122">
+        <v>103.90427560000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>426</v>
       </c>
@@ -6817,8 +7555,14 @@
       <c r="F123" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G123">
+        <v>1.3052433000000001</v>
+      </c>
+      <c r="H123">
+        <v>103.9052341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>430</v>
       </c>
@@ -6837,8 +7581,14 @@
       <c r="F124" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G124">
+        <v>1.374177</v>
+      </c>
+      <c r="H124">
+        <v>103.9322926</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>432</v>
       </c>
@@ -6857,8 +7607,14 @@
       <c r="F125" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G125">
+        <v>1.303903</v>
+      </c>
+      <c r="H125">
+        <v>103.9011732</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>436</v>
       </c>
@@ -6877,8 +7633,14 @@
       <c r="F126" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G126">
+        <v>1.3047255</v>
+      </c>
+      <c r="H126">
+        <v>103.9046894</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>440</v>
       </c>
@@ -6897,8 +7659,14 @@
       <c r="F127" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G127">
+        <v>1.3036198999999999</v>
+      </c>
+      <c r="H127">
+        <v>103.9029701</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>443</v>
       </c>
@@ -6917,8 +7685,14 @@
       <c r="F128" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G128">
+        <v>1.3149230999999999</v>
+      </c>
+      <c r="H128">
+        <v>103.8945866</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>446</v>
       </c>
@@ -6937,8 +7711,14 @@
       <c r="F129" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G129">
+        <v>1.3196896</v>
+      </c>
+      <c r="H129">
+        <v>103.89249220000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>451</v>
       </c>
@@ -6957,8 +7737,14 @@
       <c r="F130" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G130">
+        <v>1.3523847</v>
+      </c>
+      <c r="H130">
+        <v>103.9420504</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>455</v>
       </c>
@@ -6977,8 +7763,14 @@
       <c r="F131" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G131">
+        <v>1.3013366</v>
+      </c>
+      <c r="H131">
+        <v>103.90523330000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>458</v>
       </c>
@@ -6997,8 +7789,14 @@
       <c r="F132" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <v>1.3032385</v>
+      </c>
+      <c r="H132">
+        <v>103.9048732</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>461</v>
       </c>
@@ -7017,8 +7815,14 @@
       <c r="F133" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G133">
+        <v>1.3124678000000001</v>
+      </c>
+      <c r="H133">
+        <v>103.92323589999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>464</v>
       </c>
@@ -7037,8 +7841,14 @@
       <c r="F134" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G134">
+        <v>1.3335250999999999</v>
+      </c>
+      <c r="H134">
+        <v>103.959537</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>466</v>
       </c>
@@ -7057,8 +7867,14 @@
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G135">
+        <v>1.3412580000000001</v>
+      </c>
+      <c r="H135">
+        <v>103.9637585</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>468</v>
       </c>
@@ -7077,8 +7893,14 @@
       <c r="F136" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G136">
+        <v>1.3189029999999999</v>
+      </c>
+      <c r="H136">
+        <v>103.894049</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>473</v>
       </c>
@@ -7097,8 +7919,14 @@
       <c r="F137" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G137">
+        <v>1.3540350999999999</v>
+      </c>
+      <c r="H137">
+        <v>103.9453692</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>37</v>
       </c>
@@ -7117,8 +7945,14 @@
       <c r="F138" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G138">
+        <v>1.3524510000000001</v>
+      </c>
+      <c r="H138">
+        <v>103.9446732</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>478</v>
       </c>
@@ -7137,8 +7971,14 @@
       <c r="F139" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G139">
+        <v>1.3528354</v>
+      </c>
+      <c r="H139">
+        <v>103.9427922</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>482</v>
       </c>
@@ -7157,8 +7997,14 @@
       <c r="F140" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <v>1.3160221999999999</v>
+      </c>
+      <c r="H140">
+        <v>103.8943761</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>483</v>
       </c>
@@ -7177,8 +8023,14 @@
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <v>1.3535191</v>
+      </c>
+      <c r="H141">
+        <v>103.94209290000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>486</v>
       </c>
@@ -7197,8 +8049,14 @@
       <c r="F142" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G142">
+        <v>1.3037177</v>
+      </c>
+      <c r="H142">
+        <v>103.9029408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>488</v>
       </c>
@@ -7217,8 +8075,14 @@
       <c r="F143" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G143">
+        <v>1.3724166</v>
+      </c>
+      <c r="H143">
+        <v>103.9496584</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>488</v>
       </c>
@@ -7237,8 +8101,14 @@
       <c r="F144" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G144">
+        <v>1.3724166</v>
+      </c>
+      <c r="H144">
+        <v>103.9496584</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>495</v>
       </c>
@@ -7257,8 +8127,14 @@
       <c r="F145" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G145">
+        <v>1.2735479999999999</v>
+      </c>
+      <c r="H145">
+        <v>103.833406</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>499</v>
       </c>
@@ -7277,8 +8153,14 @@
       <c r="F146" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G146">
+        <v>1.2722598000000001</v>
+      </c>
+      <c r="H146">
+        <v>103.834388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>503</v>
       </c>
@@ -7297,8 +8179,14 @@
       <c r="F147" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G147">
+        <v>1.2817341</v>
+      </c>
+      <c r="H147">
+        <v>103.8504794</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>506</v>
       </c>
@@ -7317,8 +8205,14 @@
       <c r="F148" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G148">
+        <v>1.2792258999999999</v>
+      </c>
+      <c r="H148">
+        <v>103.8492973</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>511</v>
       </c>
@@ -7337,8 +8231,14 @@
       <c r="F149" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G149">
+        <v>1.2752456999999999</v>
+      </c>
+      <c r="H149">
+        <v>103.8434106</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>515</v>
       </c>
@@ -7357,8 +8257,14 @@
       <c r="F150" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G150">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H150">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>519</v>
       </c>
@@ -7377,8 +8283,14 @@
       <c r="F151" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G151">
+        <v>1.2761294000000001</v>
+      </c>
+      <c r="H151">
+        <v>103.8474403</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>524</v>
       </c>
@@ -7397,8 +8309,14 @@
       <c r="F152" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G152">
+        <v>1.2792513999999999</v>
+      </c>
+      <c r="H152">
+        <v>103.8477784</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>528</v>
       </c>
@@ -7417,8 +8335,14 @@
       <c r="F153" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G153">
+        <v>1.2958613999999999</v>
+      </c>
+      <c r="H153">
+        <v>103.8555479</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>532</v>
       </c>
@@ -7437,8 +8361,14 @@
       <c r="F154" s="3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G154">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H154">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>536</v>
       </c>
@@ -7457,8 +8387,14 @@
       <c r="F155" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G155">
+        <v>1.2993754</v>
+      </c>
+      <c r="H155">
+        <v>103.85552610000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>11</v>
       </c>
@@ -7477,8 +8413,14 @@
       <c r="F156" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G156">
+        <v>1.2995954999999999</v>
+      </c>
+      <c r="H156">
+        <v>103.85421909999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>543</v>
       </c>
@@ -7497,8 +8439,14 @@
       <c r="F157" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G157">
+        <v>1.3023144</v>
+      </c>
+      <c r="H157">
+        <v>103.8525688</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>546</v>
       </c>
@@ -7517,8 +8465,14 @@
       <c r="F158" s="3" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G158">
+        <v>1.2819389000000001</v>
+      </c>
+      <c r="H158">
+        <v>103.8511317</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>551</v>
       </c>
@@ -7537,8 +8491,14 @@
       <c r="F159" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G159">
+        <v>1.2818046000000001</v>
+      </c>
+      <c r="H159">
+        <v>103.85011350000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>556</v>
       </c>
@@ -7557,8 +8517,14 @@
       <c r="F160" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G160">
+        <v>1.2841007</v>
+      </c>
+      <c r="H160">
+        <v>103.848822</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>560</v>
       </c>
@@ -7577,8 +8543,14 @@
       <c r="F161" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G161">
+        <v>1.2777365999999999</v>
+      </c>
+      <c r="H161">
+        <v>103.8476215</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>565</v>
       </c>
@@ -7597,8 +8569,14 @@
       <c r="F162" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G162">
+        <v>1.2929876</v>
+      </c>
+      <c r="H162">
+        <v>103.85116189999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>569</v>
       </c>
@@ -7617,8 +8595,14 @@
       <c r="F163" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G163">
+        <v>1.2955565</v>
+      </c>
+      <c r="H163">
+        <v>103.85308620000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>572</v>
       </c>
@@ -7637,8 +8621,14 @@
       <c r="F164" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G164">
+        <v>1.2924259</v>
+      </c>
+      <c r="H164">
+        <v>103.8587625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>576</v>
       </c>
@@ -7657,8 +8647,14 @@
       <c r="F165" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G165">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H165">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>580</v>
       </c>
@@ -7677,8 +8673,14 @@
       <c r="F166" s="3" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G166">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H166">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>584</v>
       </c>
@@ -7697,8 +8699,14 @@
       <c r="F167" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G167">
+        <v>1.2952923000000001</v>
+      </c>
+      <c r="H167">
+        <v>103.8517863</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>588</v>
       </c>
@@ -7717,8 +8725,14 @@
       <c r="F168" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G168">
+        <v>1.2835704999999999</v>
+      </c>
+      <c r="H168">
+        <v>103.8468901</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>592</v>
       </c>
@@ -7737,8 +8751,14 @@
       <c r="F169" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G169">
+        <v>1.28535</v>
+      </c>
+      <c r="H169">
+        <v>103.845069</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>595</v>
       </c>
@@ -7757,8 +8777,14 @@
       <c r="F170" s="3" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G170">
+        <v>1.3022509</v>
+      </c>
+      <c r="H170">
+        <v>103.8625132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>16</v>
       </c>
@@ -7777,8 +8803,14 @@
       <c r="F171" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G171">
+        <v>1.2906024</v>
+      </c>
+      <c r="H171">
+        <v>103.8464742</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>601</v>
       </c>
@@ -7797,8 +8829,14 @@
       <c r="F172" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G172">
+        <v>1.2890252</v>
+      </c>
+      <c r="H172">
+        <v>103.8466098</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
         <v>605</v>
       </c>
@@ -7817,8 +8855,14 @@
       <c r="F173" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G173">
+        <v>1.2838533000000001</v>
+      </c>
+      <c r="H173">
+        <v>103.8519697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>609</v>
       </c>
@@ -7837,8 +8881,14 @@
       <c r="F174" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G174">
+        <v>1.2935890000000001</v>
+      </c>
+      <c r="H174">
+        <v>103.8589017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>612</v>
       </c>
@@ -7857,8 +8907,14 @@
       <c r="F175" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G175">
+        <v>1.2882884999999999</v>
+      </c>
+      <c r="H175">
+        <v>103.8366159</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>615</v>
       </c>
@@ -7877,8 +8933,14 @@
       <c r="F176" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G176">
+        <v>1.2770172</v>
+      </c>
+      <c r="H176">
+        <v>103.84797570000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>618</v>
       </c>
@@ -7897,8 +8959,14 @@
       <c r="F177" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G177">
+        <v>1.2834477</v>
+      </c>
+      <c r="H177">
+        <v>103.84784310000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>622</v>
       </c>
@@ -7917,8 +8985,14 @@
       <c r="F178" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G178">
+        <v>1.2799815999999999</v>
+      </c>
+      <c r="H178">
+        <v>103.8482487</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>626</v>
       </c>
@@ -7937,8 +9011,14 @@
       <c r="F179" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G179">
+        <v>1.3004009999999999</v>
+      </c>
+      <c r="H179">
+        <v>103.8523563</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>629</v>
       </c>
@@ -7957,8 +9037,14 @@
       <c r="F180" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G180">
+        <v>1.3017027000000001</v>
+      </c>
+      <c r="H180">
+        <v>103.8544208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
         <v>632</v>
       </c>
@@ -7977,8 +9063,14 @@
       <c r="F181" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G181">
+        <v>1.2863532</v>
+      </c>
+      <c r="H181">
+        <v>103.8530671</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>636</v>
       </c>
@@ -7997,8 +9089,14 @@
       <c r="F182" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G182">
+        <v>1.2912646999999999</v>
+      </c>
+      <c r="H182">
+        <v>103.85019320000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
         <v>640</v>
       </c>
@@ -8017,8 +9115,14 @@
       <c r="F183" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G183">
+        <v>1.2864727</v>
+      </c>
+      <c r="H183">
+        <v>103.84460540000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>644</v>
       </c>
@@ -8037,8 +9141,14 @@
       <c r="F184" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G184">
+        <v>1.2877908</v>
+      </c>
+      <c r="H184">
+        <v>103.8358758</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
         <v>647</v>
       </c>
@@ -8057,8 +9167,14 @@
       <c r="F185" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G185">
+        <v>1.2733182999999999</v>
+      </c>
+      <c r="H185">
+        <v>103.8424334</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>651</v>
       </c>
@@ -8077,8 +9193,14 @@
       <c r="F186" s="3" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G186">
+        <v>1.3020404000000001</v>
+      </c>
+      <c r="H186">
+        <v>103.85769519999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>655</v>
       </c>
@@ -8097,8 +9219,14 @@
       <c r="F187" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G187">
+        <v>1.3019677000000001</v>
+      </c>
+      <c r="H187">
+        <v>103.86410239999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>658</v>
       </c>
@@ -8117,8 +9245,14 @@
       <c r="F188" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G188">
+        <v>1.3001948999999999</v>
+      </c>
+      <c r="H188">
+        <v>103.8492265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>661</v>
       </c>
@@ -8137,8 +9271,14 @@
       <c r="F189" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G189">
+        <v>1.2905161999999999</v>
+      </c>
+      <c r="H189">
+        <v>103.8350276</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>665</v>
       </c>
@@ -8157,8 +9297,14 @@
       <c r="F190" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G190">
+        <v>1.2924116999999999</v>
+      </c>
+      <c r="H190">
+        <v>103.85011160000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>668</v>
       </c>
@@ -8177,8 +9323,14 @@
       <c r="F191" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G191">
+        <v>1.2848842</v>
+      </c>
+      <c r="H191">
+        <v>103.84772529999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>672</v>
       </c>
@@ -8197,8 +9349,14 @@
       <c r="F192" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G192">
+        <v>1.2936417</v>
+      </c>
+      <c r="H192">
+        <v>103.8319293</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>676</v>
       </c>
@@ -8217,8 +9375,14 @@
       <c r="F193" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G193">
+        <v>1.2974623999999999</v>
+      </c>
+      <c r="H193">
+        <v>103.858126</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>680</v>
       </c>
@@ -8237,8 +9401,14 @@
       <c r="F194" s="3" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G194">
+        <v>1.2769509999999999</v>
+      </c>
+      <c r="H194">
+        <v>103.8458291</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>22</v>
       </c>
@@ -8257,8 +9427,14 @@
       <c r="F195" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G195">
+        <v>1.265485</v>
+      </c>
+      <c r="H195">
+        <v>103.8239325</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>687</v>
       </c>
@@ -8277,8 +9453,14 @@
       <c r="F196" s="3" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G196">
+        <v>1.2871839</v>
+      </c>
+      <c r="H196">
+        <v>103.84513680000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
         <v>691</v>
       </c>
@@ -8297,8 +9479,14 @@
       <c r="F197" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G197">
+        <v>1.28881</v>
+      </c>
+      <c r="H197">
+        <v>103.83426</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>693</v>
       </c>
@@ -8317,8 +9505,14 @@
       <c r="F198" s="3" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G198">
+        <v>1.2814095000000001</v>
+      </c>
+      <c r="H198">
+        <v>103.8510185</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
         <v>698</v>
       </c>
@@ -8337,8 +9531,14 @@
       <c r="F199" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G199">
+        <v>1.2974000000000001</v>
+      </c>
+      <c r="H199">
+        <v>103.8528</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>702</v>
       </c>
@@ -8357,8 +9557,14 @@
       <c r="F200" s="3" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G200">
+        <v>1.2739236</v>
+      </c>
+      <c r="H200">
+        <v>103.8444671</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
         <v>707</v>
       </c>
@@ -8377,8 +9583,14 @@
       <c r="F201" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G201">
+        <v>1.3012056999999999</v>
+      </c>
+      <c r="H201">
+        <v>103.8525188</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>710</v>
       </c>
@@ -8397,8 +9609,14 @@
       <c r="F202" s="3" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G202">
+        <v>1.2749071999999999</v>
+      </c>
+      <c r="H202">
+        <v>103.84443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
         <v>715</v>
       </c>
@@ -8417,8 +9635,14 @@
       <c r="F203" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G203">
+        <v>1.3007774999999999</v>
+      </c>
+      <c r="H203">
+        <v>103.8505572</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>719</v>
       </c>
@@ -8437,8 +9661,14 @@
       <c r="F204" s="3" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G204">
+        <v>1.2842344999999999</v>
+      </c>
+      <c r="H204">
+        <v>103.8524453</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
         <v>724</v>
       </c>
@@ -8457,8 +9687,14 @@
       <c r="F205" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G205">
+        <v>1.2984503999999999</v>
+      </c>
+      <c r="H205">
+        <v>103.854865</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>728</v>
       </c>
@@ -8477,8 +9713,14 @@
       <c r="F206" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G206">
+        <v>1.2901492000000001</v>
+      </c>
+      <c r="H206">
+        <v>103.8386544</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
         <v>731</v>
       </c>
@@ -8497,8 +9739,14 @@
       <c r="F207" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G207">
+        <v>1.2760651000000001</v>
+      </c>
+      <c r="H207">
+        <v>103.8458395</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>736</v>
       </c>
@@ -8517,8 +9765,14 @@
       <c r="F208" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G208">
+        <v>1.2802201</v>
+      </c>
+      <c r="H208">
+        <v>103.8488418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
         <v>740</v>
       </c>
@@ -8537,8 +9791,14 @@
       <c r="F209" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G209">
+        <v>1.2651467999999999</v>
+      </c>
+      <c r="H209">
+        <v>103.8181417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
         <v>743</v>
       </c>
@@ -8557,8 +9817,14 @@
       <c r="F210" s="3" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G210">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H210">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
         <v>748</v>
       </c>
@@ -8577,8 +9843,14 @@
       <c r="F211" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G211">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H211">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>752</v>
       </c>
@@ -8597,8 +9869,14 @@
       <c r="F212" s="3" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G212">
+        <v>1.2737670000000001</v>
+      </c>
+      <c r="H212">
+        <v>103.8450399</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
         <v>757</v>
       </c>
@@ -8617,8 +9895,14 @@
       <c r="F213" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G213">
+        <v>1.2903302000000001</v>
+      </c>
+      <c r="H213">
+        <v>103.8580862</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>761</v>
       </c>
@@ -8637,8 +9921,14 @@
       <c r="F214" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G214">
+        <v>1.2824439000000001</v>
+      </c>
+      <c r="H214">
+        <v>103.8490256</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>765</v>
       </c>
@@ -8657,8 +9947,14 @@
       <c r="F215" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G215">
+        <v>1.280681</v>
+      </c>
+      <c r="H215">
+        <v>103.8711213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
         <v>768</v>
       </c>
@@ -8677,8 +9973,14 @@
       <c r="F216" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G216">
+        <v>1.2801796000000001</v>
+      </c>
+      <c r="H216">
+        <v>103.8541958</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
         <v>772</v>
       </c>
@@ -8697,8 +9999,14 @@
       <c r="F217" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G217">
+        <v>1.2797474</v>
+      </c>
+      <c r="H217">
+        <v>103.8538191</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
         <v>773</v>
       </c>
@@ -8717,8 +10025,14 @@
       <c r="F218" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G218">
+        <v>1.2790220999999999</v>
+      </c>
+      <c r="H218">
+        <v>103.8544967</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
         <v>774</v>
       </c>
@@ -8737,8 +10051,14 @@
       <c r="F219" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G219">
+        <v>1.2795303</v>
+      </c>
+      <c r="H219">
+        <v>103.8543391</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
         <v>775</v>
       </c>
@@ -8757,8 +10077,14 @@
       <c r="F220" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G220">
+        <v>1.2837575000000001</v>
+      </c>
+      <c r="H220">
+        <v>103.8591065</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
         <v>777</v>
       </c>
@@ -8777,8 +10103,14 @@
       <c r="F221" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G221">
+        <v>1.2917921999999999</v>
+      </c>
+      <c r="H221">
+        <v>103.8571184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
         <v>778</v>
       </c>
@@ -8797,8 +10129,14 @@
       <c r="F222" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G222">
+        <v>1.2776331000000001</v>
+      </c>
+      <c r="H222">
+        <v>103.8531473</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
         <v>27</v>
       </c>
@@ -8817,8 +10155,14 @@
       <c r="F223" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G223">
+        <v>1.2911534</v>
+      </c>
+      <c r="H223">
+        <v>103.8576778</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
         <v>783</v>
       </c>
@@ -8837,8 +10181,14 @@
       <c r="F224" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G224">
+        <v>1.2920715</v>
+      </c>
+      <c r="H224">
+        <v>103.85985100000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>784</v>
       </c>
@@ -8857,8 +10207,14 @@
       <c r="F225" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G225">
+        <v>1.2916585</v>
+      </c>
+      <c r="H225">
+        <v>103.85976290000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
         <v>785</v>
       </c>
@@ -8877,8 +10233,14 @@
       <c r="F226" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G226">
+        <v>1.2916585</v>
+      </c>
+      <c r="H226">
+        <v>103.85976290000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>28</v>
       </c>
@@ -8897,8 +10259,14 @@
       <c r="F227" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="185.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G227">
+        <v>1.2902217</v>
+      </c>
+      <c r="H227">
+        <v>103.8515167</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
         <v>791</v>
       </c>
@@ -8917,8 +10285,14 @@
       <c r="F228" s="3" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G228">
+        <v>1.2780473000000001</v>
+      </c>
+      <c r="H228">
+        <v>103.84051669999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>795</v>
       </c>
@@ -8937,8 +10311,14 @@
       <c r="F229" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G229">
+        <v>1.2947531999999999</v>
+      </c>
+      <c r="H229">
+        <v>103.85286019999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
         <v>799</v>
       </c>
@@ -8957,8 +10337,14 @@
       <c r="F230" s="3" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G230">
+        <v>1.2916084000000001</v>
+      </c>
+      <c r="H230">
+        <v>103.8449933</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
         <v>803</v>
       </c>
@@ -8977,8 +10363,14 @@
       <c r="F231" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G231">
+        <v>1.2964556</v>
+      </c>
+      <c r="H231">
+        <v>103.8517196</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>807</v>
       </c>
@@ -8997,8 +10389,14 @@
       <c r="F232" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G232">
+        <v>1.2854302</v>
+      </c>
+      <c r="H232">
+        <v>103.84933340000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
         <v>811</v>
       </c>
@@ -9017,8 +10415,14 @@
       <c r="F233" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G233">
+        <v>1.2962396</v>
+      </c>
+      <c r="H233">
+        <v>103.85328320000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
         <v>814</v>
       </c>
@@ -9037,8 +10441,14 @@
       <c r="F234" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G234">
+        <v>1.2860883999999999</v>
+      </c>
+      <c r="H234">
+        <v>103.85405710000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
         <v>817</v>
       </c>
@@ -9057,8 +10467,14 @@
       <c r="F235" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G235">
+        <v>1.2859607</v>
+      </c>
+      <c r="H235">
+        <v>103.84785119999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
         <v>820</v>
       </c>
@@ -9077,8 +10493,14 @@
       <c r="F236" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G236">
+        <v>1.2843800999999999</v>
+      </c>
+      <c r="H236">
+        <v>103.8510181</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
         <v>824</v>
       </c>
@@ -9097,8 +10519,14 @@
       <c r="F237" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G237">
+        <v>1.2810937</v>
+      </c>
+      <c r="H237">
+        <v>103.8516618</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
         <v>828</v>
       </c>
@@ -9117,8 +10545,14 @@
       <c r="F238" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G238">
+        <v>1.2793901000000001</v>
+      </c>
+      <c r="H238">
+        <v>103.8506934</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
         <v>832</v>
       </c>
@@ -9137,8 +10571,14 @@
       <c r="F239" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G239">
+        <v>1.2827465</v>
+      </c>
+      <c r="H239">
+        <v>103.8530569</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
         <v>836</v>
       </c>
@@ -9157,8 +10597,14 @@
       <c r="F240" s="3" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G240">
+        <v>1.2773786</v>
+      </c>
+      <c r="H240">
+        <v>103.8486667</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
         <v>840</v>
       </c>
@@ -9177,8 +10623,14 @@
       <c r="F241" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G241">
+        <v>1.2783399</v>
+      </c>
+      <c r="H241">
+        <v>103.8491324</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
         <v>841</v>
       </c>
@@ -9197,8 +10649,14 @@
       <c r="F242" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G242">
+        <v>1.2924176000000001</v>
+      </c>
+      <c r="H242">
+        <v>103.85858519999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
         <v>842</v>
       </c>
@@ -9217,8 +10675,14 @@
       <c r="F243" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G243">
+        <v>1.3006610000000001</v>
+      </c>
+      <c r="H243">
+        <v>103.84933669999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
         <v>846</v>
       </c>
@@ -9237,8 +10701,14 @@
       <c r="F244" s="3" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G244">
+        <v>1.3000320000000001</v>
+      </c>
+      <c r="H244">
+        <v>103.86057219999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
         <v>851</v>
       </c>
@@ -9257,8 +10727,14 @@
       <c r="F245" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G245">
+        <v>1.2856437999999999</v>
+      </c>
+      <c r="H245">
+        <v>103.8464647</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
         <v>854</v>
       </c>
@@ -9277,8 +10753,14 @@
       <c r="F246" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G246">
+        <v>1.2921301000000001</v>
+      </c>
+      <c r="H246">
+        <v>103.8499727</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
         <v>858</v>
       </c>
@@ -9297,8 +10779,14 @@
       <c r="F247" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G247">
+        <v>1.285631</v>
+      </c>
+      <c r="H247">
+        <v>103.84409290000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>861</v>
       </c>
@@ -9317,8 +10805,14 @@
       <c r="F248" s="3" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G248">
+        <v>1.2841977</v>
+      </c>
+      <c r="H248">
+        <v>103.8425488</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
         <v>865</v>
       </c>
@@ -9337,8 +10831,14 @@
       <c r="F249" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G249">
+        <v>1.2942830999999999</v>
+      </c>
+      <c r="H249">
+        <v>103.8529487</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
         <v>869</v>
       </c>
@@ -9357,8 +10857,14 @@
       <c r="F250" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G250">
+        <v>1.294889</v>
+      </c>
+      <c r="H250">
+        <v>103.854483</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
         <v>872</v>
       </c>
@@ -9377,8 +10883,14 @@
       <c r="F251" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G251">
+        <v>1.2985226999999999</v>
+      </c>
+      <c r="H251">
+        <v>103.8491411</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
         <v>874</v>
       </c>
@@ -9397,8 +10909,14 @@
       <c r="F252" s="3" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="225" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G252">
+        <v>1.2832744</v>
+      </c>
+      <c r="H252">
+        <v>103.85088260000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
         <v>879</v>
       </c>
@@ -9417,8 +10935,14 @@
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G253">
+        <v>1.255179</v>
+      </c>
+      <c r="H253">
+        <v>103.8218107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
         <v>881</v>
       </c>
@@ -9437,8 +10961,14 @@
       <c r="F254" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G254">
+        <v>1.2894372999999999</v>
+      </c>
+      <c r="H254">
+        <v>103.84410630000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
         <v>884</v>
       </c>
@@ -9457,8 +10987,14 @@
       <c r="F255" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G255">
+        <v>1.2920186</v>
+      </c>
+      <c r="H255">
+        <v>103.8414078</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
         <v>887</v>
       </c>
@@ -9477,8 +11013,14 @@
       <c r="F256" s="3" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G256">
+        <v>1.2777689000000001</v>
+      </c>
+      <c r="H256">
+        <v>103.84839150000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
         <v>891</v>
       </c>
@@ -9497,8 +11039,14 @@
       <c r="F257" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G257">
+        <v>1.2993733999999999</v>
+      </c>
+      <c r="H257">
+        <v>103.8487619</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>894</v>
       </c>
@@ -9517,8 +11065,14 @@
       <c r="F258" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G258">
+        <v>1.2794432</v>
+      </c>
+      <c r="H258">
+        <v>103.8498877</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
         <v>898</v>
       </c>
@@ -9537,8 +11091,14 @@
       <c r="F259" s="2" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G259">
+        <v>1.2784546000000001</v>
+      </c>
+      <c r="H259">
+        <v>103.8499767</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
         <v>903</v>
       </c>
@@ -9557,8 +11117,14 @@
       <c r="F260" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G260">
+        <v>1.3030432999999999</v>
+      </c>
+      <c r="H260">
+        <v>103.85292080000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
         <v>905</v>
       </c>
@@ -9577,8 +11143,14 @@
       <c r="F261" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G261">
+        <v>1.3037601999999999</v>
+      </c>
+      <c r="H261">
+        <v>103.8547385</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
         <v>908</v>
       </c>
@@ -9597,8 +11169,14 @@
       <c r="F262" s="3" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G262">
+        <v>1.2759828</v>
+      </c>
+      <c r="H262">
+        <v>103.84956320000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
         <v>910</v>
       </c>
@@ -9617,8 +11195,14 @@
       <c r="F263" s="2" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G263">
+        <v>1.2807537</v>
+      </c>
+      <c r="H263">
+        <v>103.8322994</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>915</v>
       </c>
@@ -9637,8 +11221,14 @@
       <c r="F264" s="3" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G264">
+        <v>1.2799951000000001</v>
+      </c>
+      <c r="H264">
+        <v>103.8306661</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
         <v>919</v>
       </c>
@@ -9657,8 +11247,14 @@
       <c r="F265" s="2" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G265">
+        <v>1.2785753</v>
+      </c>
+      <c r="H265">
+        <v>103.8361084</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
         <v>922</v>
       </c>
@@ -9677,8 +11273,14 @@
       <c r="F266" s="3" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G266">
+        <v>1.2847487</v>
+      </c>
+      <c r="H266">
+        <v>103.85199230000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
         <v>926</v>
       </c>
@@ -9697,8 +11299,14 @@
       <c r="F267" s="2" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G267">
+        <v>1.2856141000000001</v>
+      </c>
+      <c r="H267">
+        <v>103.8519726</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
         <v>931</v>
       </c>
@@ -9717,8 +11325,14 @@
       <c r="F268" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G268">
+        <v>1.2957395</v>
+      </c>
+      <c r="H268">
+        <v>103.8566136</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
         <v>935</v>
       </c>
@@ -9737,8 +11351,14 @@
       <c r="F269" s="2" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="185.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G269">
+        <v>1.2944822</v>
+      </c>
+      <c r="H269">
+        <v>103.850122</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
         <v>939</v>
       </c>
@@ -9757,8 +11377,14 @@
       <c r="F270" s="3" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G270">
+        <v>1.3004038</v>
+      </c>
+      <c r="H270">
+        <v>103.85112530000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
         <v>36</v>
       </c>
@@ -9777,8 +11403,14 @@
       <c r="F271" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G271">
+        <v>1.2950324</v>
+      </c>
+      <c r="H271">
+        <v>103.8583015</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
         <v>947</v>
       </c>
@@ -9797,8 +11429,14 @@
       <c r="F272" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G272">
+        <v>1.2884308</v>
+      </c>
+      <c r="H272">
+        <v>103.84580529999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="8" t="s">
         <v>950</v>
       </c>
@@ -9817,8 +11455,14 @@
       <c r="F273" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G273">
+        <v>1.2936866</v>
+      </c>
+      <c r="H273">
+        <v>103.8533912</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
         <v>954</v>
       </c>
@@ -9837,8 +11481,14 @@
       <c r="F274" s="3" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G274">
+        <v>1.2911845</v>
+      </c>
+      <c r="H274">
+        <v>103.85121669999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="8" t="s">
         <v>958</v>
       </c>
@@ -9857,8 +11507,14 @@
       <c r="F275" s="2" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G275">
+        <v>1.30043</v>
+      </c>
+      <c r="H275">
+        <v>103.86229059999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="7" t="s">
         <v>963</v>
       </c>
@@ -9877,8 +11533,14 @@
       <c r="F276" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G276">
+        <v>1.2782777000000001</v>
+      </c>
+      <c r="H276">
+        <v>103.84815020000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="8" t="s">
         <v>39</v>
       </c>
@@ -9897,8 +11559,14 @@
       <c r="F277" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G277">
+        <v>1.2897934</v>
+      </c>
+      <c r="H277">
+        <v>103.8558166</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
         <v>967</v>
       </c>
@@ -9917,8 +11585,14 @@
       <c r="F278" s="3" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G278">
+        <v>1.2984040999999999</v>
+      </c>
+      <c r="H278">
+        <v>103.8589041</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="8" t="s">
         <v>972</v>
       </c>
@@ -9937,8 +11611,14 @@
       <c r="F279" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G279">
+        <v>1.2909392</v>
+      </c>
+      <c r="H279">
+        <v>103.8599895</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
         <v>973</v>
       </c>
@@ -9957,8 +11637,14 @@
       <c r="F280" s="3" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G280">
+        <v>1.2812532999999999</v>
+      </c>
+      <c r="H280">
+        <v>103.85283029999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="8" t="s">
         <v>978</v>
       </c>
@@ -9977,8 +11663,14 @@
       <c r="F281" s="2" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G281">
+        <v>1.2921678999999999</v>
+      </c>
+      <c r="H281">
+        <v>103.8426697</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>982</v>
       </c>
@@ -9997,8 +11689,14 @@
       <c r="F282" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G282">
+        <v>1.2852182999999999</v>
+      </c>
+      <c r="H282">
+        <v>103.85117459999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="8" t="s">
         <v>986</v>
       </c>
@@ -10017,8 +11715,14 @@
       <c r="F283" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G283">
+        <v>1.2909701</v>
+      </c>
+      <c r="H283">
+        <v>103.8374874</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
         <v>989</v>
       </c>
@@ -10037,8 +11741,14 @@
       <c r="F284" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G284">
+        <v>1.2647139000000001</v>
+      </c>
+      <c r="H284">
+        <v>103.8231658</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="8" t="s">
         <v>993</v>
       </c>
@@ -10057,8 +11767,14 @@
       <c r="F285" s="2" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G285">
+        <v>1.2755041</v>
+      </c>
+      <c r="H285">
+        <v>103.7957754</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="7" t="s">
         <v>997</v>
       </c>
@@ -10077,8 +11793,14 @@
       <c r="F286" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G286">
+        <v>1.3145072</v>
+      </c>
+      <c r="H286">
+        <v>103.7564802</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="8" t="s">
         <v>999</v>
       </c>
@@ -10097,8 +11819,14 @@
       <c r="F287" s="2" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G287">
+        <v>1.2761164</v>
+      </c>
+      <c r="H287">
+        <v>103.7972822</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
         <v>1004</v>
       </c>
@@ -10117,8 +11845,14 @@
       <c r="F288" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G288">
+        <v>1.2739138999999999</v>
+      </c>
+      <c r="H288">
+        <v>103.8015008</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="8" t="s">
         <v>1008</v>
       </c>
@@ -10137,8 +11871,14 @@
       <c r="F289" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G289">
+        <v>1.2887706000000001</v>
+      </c>
+      <c r="H289">
+        <v>103.8050762</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="7" t="s">
         <v>1011</v>
       </c>
@@ -10157,8 +11897,14 @@
       <c r="F290" s="3" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G290">
+        <v>1.2968132000000001</v>
+      </c>
+      <c r="H290">
+        <v>103.7860893</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="8" t="s">
         <v>1015</v>
       </c>
@@ -10177,8 +11923,14 @@
       <c r="F291" s="2" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G291">
+        <v>1.2770188</v>
+      </c>
+      <c r="H291">
+        <v>103.79147279999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="7" t="s">
         <v>1019</v>
       </c>
@@ -10197,8 +11949,14 @@
       <c r="F292" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G292">
+        <v>1.3035504</v>
+      </c>
+      <c r="H292">
+        <v>103.7925625</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="8" t="s">
         <v>13</v>
       </c>
@@ -10217,8 +11975,14 @@
       <c r="F293" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="225" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G293">
+        <v>1.3800395999999999</v>
+      </c>
+      <c r="H293">
+        <v>103.76423389999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>1025</v>
       </c>
@@ -10237,8 +12001,14 @@
       <c r="F294" s="3" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G294">
+        <v>1.3387468</v>
+      </c>
+      <c r="H294">
+        <v>103.7786758</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="8" t="s">
         <v>1030</v>
       </c>
@@ -10257,8 +12027,14 @@
       <c r="F295" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G295">
+        <v>1.3430124999999999</v>
+      </c>
+      <c r="H295">
+        <v>103.7759592</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
         <v>1033</v>
       </c>
@@ -10277,8 +12053,14 @@
       <c r="F296" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G296">
+        <v>1.3239057999999999</v>
+      </c>
+      <c r="H296">
+        <v>103.80999180000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
         <v>1035</v>
       </c>
@@ -10297,8 +12079,14 @@
       <c r="F297" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G297">
+        <v>1.3356569</v>
+      </c>
+      <c r="H297">
+        <v>103.7443796</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
         <v>1037</v>
       </c>
@@ -10317,8 +12105,14 @@
       <c r="F298" s="3" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G298">
+        <v>1.2998623</v>
+      </c>
+      <c r="H298">
+        <v>103.7875532</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="8" t="s">
         <v>1040</v>
       </c>
@@ -10337,8 +12131,14 @@
       <c r="F299" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G299">
+        <v>1.3315786000000001</v>
+      </c>
+      <c r="H299">
+        <v>103.73957129999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
         <v>1043</v>
       </c>
@@ -10357,8 +12157,14 @@
       <c r="F300" s="3" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G300">
+        <v>1.2783332999999999</v>
+      </c>
+      <c r="H300">
+        <v>103.80444439999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="8" t="s">
         <v>1047</v>
       </c>
@@ -10377,8 +12183,14 @@
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G301">
+        <v>1.363354</v>
+      </c>
+      <c r="H301">
+        <v>103.7643204</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
         <v>1049</v>
       </c>
@@ -10397,8 +12209,14 @@
       <c r="F302" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G302">
+        <v>1.3102049</v>
+      </c>
+      <c r="H302">
+        <v>103.7953005</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="8" t="s">
         <v>1053</v>
       </c>
@@ -10417,8 +12235,14 @@
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" ht="211.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G303">
+        <v>1.2880072</v>
+      </c>
+      <c r="H303">
+        <v>103.8060273</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="7" t="s">
         <v>23</v>
       </c>
@@ -10435,8 +12259,14 @@
       <c r="F304" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G304">
+        <v>1.3359631000000001</v>
+      </c>
+      <c r="H304">
+        <v>103.7470337</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="8" t="s">
         <v>1057</v>
       </c>
@@ -10455,8 +12285,14 @@
       <c r="F305" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G305">
+        <v>1.3803977000000001</v>
+      </c>
+      <c r="H305">
+        <v>103.7599579</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
         <v>1060</v>
       </c>
@@ -10475,8 +12311,14 @@
       <c r="F306" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G306">
+        <v>1.3397443</v>
+      </c>
+      <c r="H306">
+        <v>103.7067297</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="8" t="s">
         <v>1064</v>
       </c>
@@ -10495,8 +12337,14 @@
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G307">
+        <v>1.3367435999999999</v>
+      </c>
+      <c r="H307">
+        <v>103.7837031</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
         <v>26</v>
       </c>
@@ -10515,8 +12363,14 @@
       <c r="F308" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G308">
+        <v>1.3851169000000001</v>
+      </c>
+      <c r="H308">
+        <v>103.7449142</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="8" t="s">
         <v>1069</v>
       </c>
@@ -10535,8 +12389,14 @@
       <c r="F309" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G309">
+        <v>1.2956042000000001</v>
+      </c>
+      <c r="H309">
+        <v>103.7931274</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
         <v>1072</v>
       </c>
@@ -10555,8 +12415,14 @@
       <c r="F310" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G310">
+        <v>1.2938662999999999</v>
+      </c>
+      <c r="H310">
+        <v>103.7831292</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
         <v>1074</v>
       </c>
@@ -10575,8 +12441,14 @@
       <c r="F311" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G311">
+        <v>1.3115249</v>
+      </c>
+      <c r="H311">
+        <v>103.793977</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
         <v>1078</v>
       </c>
@@ -10595,8 +12467,14 @@
       <c r="F312" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G312">
+        <v>1.3169105999999999</v>
+      </c>
+      <c r="H312">
+        <v>103.7831533</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
         <v>1081</v>
       </c>
@@ -10615,8 +12493,14 @@
       <c r="F313" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G313">
+        <v>1.332147</v>
+      </c>
+      <c r="H313">
+        <v>103.7445649</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
         <v>1084</v>
       </c>
@@ -10635,8 +12519,14 @@
       <c r="F314" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G314">
+        <v>1.2875525999999999</v>
+      </c>
+      <c r="H314">
+        <v>103.80346849999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="8" t="s">
         <v>1087</v>
       </c>
@@ -10655,8 +12545,14 @@
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G315">
+        <v>1.3055783999999999</v>
+      </c>
+      <c r="H315">
+        <v>103.7882008</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
         <v>1089</v>
       </c>
@@ -10675,8 +12571,14 @@
       <c r="F316" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G316">
+        <v>1.3225385999999999</v>
+      </c>
+      <c r="H316">
+        <v>103.8136409</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
         <v>1091</v>
       </c>
@@ -10695,8 +12597,14 @@
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G317">
+        <v>1.314918</v>
+      </c>
+      <c r="H317">
+        <v>103.7643089</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
         <v>1093</v>
       </c>
@@ -10715,8 +12623,14 @@
       <c r="F318" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" ht="251.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G318">
+        <v>1.3059208</v>
+      </c>
+      <c r="H318">
+        <v>103.7915907</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
         <v>1097</v>
       </c>
@@ -10735,8 +12649,14 @@
       <c r="F319" s="2" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G319">
+        <v>1.3068071999999999</v>
+      </c>
+      <c r="H319">
+        <v>103.7883997</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
         <v>1100</v>
       </c>
@@ -10755,8 +12675,14 @@
       <c r="F320" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G320">
+        <v>1.2866534999999999</v>
+      </c>
+      <c r="H320">
+        <v>103.8271459</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="8" t="s">
         <v>1103</v>
       </c>
@@ -10775,8 +12701,14 @@
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G321">
+        <v>1.2933441000000001</v>
+      </c>
+      <c r="H321">
+        <v>103.8271408</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
         <v>1105</v>
       </c>
@@ -10795,8 +12727,14 @@
       <c r="F322" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G322">
+        <v>1.3037019999999999</v>
+      </c>
+      <c r="H322">
+        <v>103.7659312</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="8" t="s">
         <v>1109</v>
       </c>
@@ -10815,8 +12753,14 @@
       <c r="F323" s="2" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G323">
+        <v>1.3500565</v>
+      </c>
+      <c r="H323">
+        <v>103.749223</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
         <v>41</v>
       </c>
@@ -10835,8 +12779,14 @@
       <c r="F324" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G324">
+        <v>1.334382</v>
+      </c>
+      <c r="H324">
+        <v>103.7427836</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="8" t="s">
         <v>1116</v>
       </c>
@@ -10855,8 +12805,14 @@
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G325">
+        <v>1.4364417</v>
+      </c>
+      <c r="H325">
+        <v>103.7849068</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="8" t="s">
         <v>511</v>
       </c>
@@ -10875,8 +12831,14 @@
       <c r="F326" s="2" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G326">
+        <v>1.2752456999999999</v>
+      </c>
+      <c r="H326">
+        <v>103.8434106</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
         <v>532</v>
       </c>
@@ -10895,8 +12857,14 @@
       <c r="F327" s="3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G327">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H327">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="8" t="s">
         <v>569</v>
       </c>
@@ -10915,8 +12883,14 @@
       <c r="F328" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G328">
+        <v>1.2955565</v>
+      </c>
+      <c r="H328">
+        <v>103.85308620000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
         <v>400</v>
       </c>
@@ -10935,8 +12909,14 @@
       <c r="F329" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G329">
+        <v>1.3904643999999999</v>
+      </c>
+      <c r="H329">
+        <v>103.98605569999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="8" t="s">
         <v>17</v>
       </c>
@@ -10955,8 +12935,14 @@
       <c r="F330" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G330">
+        <v>1.3007654</v>
+      </c>
+      <c r="H330">
+        <v>103.841536</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="7" t="s">
         <v>609</v>
       </c>
@@ -10975,8 +12961,14 @@
       <c r="F331" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G331">
+        <v>1.2935890000000001</v>
+      </c>
+      <c r="H331">
+        <v>103.8589017</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="8" t="s">
         <v>612</v>
       </c>
@@ -10995,8 +12987,14 @@
       <c r="F332" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G332">
+        <v>1.2882884999999999</v>
+      </c>
+      <c r="H332">
+        <v>103.8366159</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
         <v>76</v>
       </c>
@@ -11015,8 +13013,14 @@
       <c r="F333" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G333">
+        <v>1.3080008000000001</v>
+      </c>
+      <c r="H333">
+        <v>103.83563169999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="8" t="s">
         <v>87</v>
       </c>
@@ -11035,8 +13039,14 @@
       <c r="F334" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G334">
+        <v>1.3050877000000001</v>
+      </c>
+      <c r="H334">
+        <v>103.82871799999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="7" t="s">
         <v>632</v>
       </c>
@@ -11055,8 +13065,14 @@
       <c r="F335" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G335">
+        <v>1.2863532</v>
+      </c>
+      <c r="H335">
+        <v>103.8530671</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="8" t="s">
         <v>640</v>
       </c>
@@ -11075,8 +13091,14 @@
       <c r="F336" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G336">
+        <v>1.2864727</v>
+      </c>
+      <c r="H336">
+        <v>103.84460540000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="7" t="s">
         <v>644</v>
       </c>
@@ -11095,8 +13117,14 @@
       <c r="F337" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G337">
+        <v>1.2877908</v>
+      </c>
+      <c r="H337">
+        <v>103.8358758</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="8" t="s">
         <v>1040</v>
       </c>
@@ -11115,8 +13143,14 @@
       <c r="F338" s="2" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G338">
+        <v>1.3315786000000001</v>
+      </c>
+      <c r="H338">
+        <v>103.73957129999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="7" t="s">
         <v>90</v>
       </c>
@@ -11135,8 +13169,14 @@
       <c r="F339" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G339">
+        <v>1.3084773999999999</v>
+      </c>
+      <c r="H339">
+        <v>103.834405</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="8" t="s">
         <v>661</v>
       </c>
@@ -11155,8 +13195,14 @@
       <c r="F340" s="2" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G340">
+        <v>1.2905161999999999</v>
+      </c>
+      <c r="H340">
+        <v>103.8350276</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="7" t="s">
         <v>94</v>
       </c>
@@ -11175,8 +13221,14 @@
       <c r="F341" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G341">
+        <v>1.3065838000000001</v>
+      </c>
+      <c r="H341">
+        <v>103.8331003</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="8" t="s">
         <v>419</v>
       </c>
@@ -11195,8 +13247,14 @@
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G342">
+        <v>1.3031710000000001</v>
+      </c>
+      <c r="H342">
+        <v>103.9047767</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
         <v>665</v>
       </c>
@@ -11215,8 +13273,14 @@
       <c r="F343" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G343">
+        <v>1.2924116999999999</v>
+      </c>
+      <c r="H343">
+        <v>103.85011160000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="8" t="s">
         <v>100</v>
       </c>
@@ -11235,8 +13299,14 @@
       <c r="F344" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G344">
+        <v>1.3019202999999999</v>
+      </c>
+      <c r="H344">
+        <v>103.8358673</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
         <v>102</v>
       </c>
@@ -11255,8 +13325,14 @@
       <c r="F345" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G345">
+        <v>1.3032367</v>
+      </c>
+      <c r="H345">
+        <v>103.8367315</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="8" t="s">
         <v>421</v>
       </c>
@@ -11275,8 +13351,14 @@
       <c r="F346" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G346">
+        <v>1.3047255</v>
+      </c>
+      <c r="H346">
+        <v>103.9046894</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
         <v>691</v>
       </c>
@@ -11295,8 +13377,14 @@
       <c r="F347" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G347">
+        <v>1.28881</v>
+      </c>
+      <c r="H347">
+        <v>103.83426</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="8" t="s">
         <v>104</v>
       </c>
@@ -11315,8 +13403,14 @@
       <c r="F348" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G348">
+        <v>1.3023125</v>
+      </c>
+      <c r="H348">
+        <v>103.8410344</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
         <v>698</v>
       </c>
@@ -11335,8 +13429,14 @@
       <c r="F349" s="3" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G349">
+        <v>1.2974000000000001</v>
+      </c>
+      <c r="H349">
+        <v>103.8528</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="8" t="s">
         <v>425</v>
       </c>
@@ -11355,8 +13455,14 @@
       <c r="F350" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G350">
+        <v>1.3050837</v>
+      </c>
+      <c r="H350">
+        <v>103.90427560000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
         <v>707</v>
       </c>
@@ -11375,8 +13481,14 @@
       <c r="F351" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G351">
+        <v>1.3012056999999999</v>
+      </c>
+      <c r="H351">
+        <v>103.8525188</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="8" t="s">
         <v>724</v>
       </c>
@@ -11395,8 +13507,14 @@
       <c r="F352" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G352">
+        <v>1.2984503999999999</v>
+      </c>
+      <c r="H352">
+        <v>103.854865</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="7" t="s">
         <v>728</v>
       </c>
@@ -11415,8 +13533,14 @@
       <c r="F353" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G353">
+        <v>1.2901492000000001</v>
+      </c>
+      <c r="H353">
+        <v>103.8386544</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="8" t="s">
         <v>743</v>
       </c>
@@ -11435,8 +13559,14 @@
       <c r="F354" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G354">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H354">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="7" t="s">
         <v>748</v>
       </c>
@@ -11455,8 +13585,14 @@
       <c r="F355" s="3" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G355">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H355">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="8" t="s">
         <v>752</v>
       </c>
@@ -11475,8 +13611,14 @@
       <c r="F356" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G356">
+        <v>1.2737670000000001</v>
+      </c>
+      <c r="H356">
+        <v>103.8450399</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
         <v>757</v>
       </c>
@@ -11495,8 +13637,14 @@
       <c r="F357" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G357">
+        <v>1.2903302000000001</v>
+      </c>
+      <c r="H357">
+        <v>103.8580862</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="8" t="s">
         <v>775</v>
       </c>
@@ -11515,8 +13663,14 @@
       <c r="F358" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G358">
+        <v>1.2837575000000001</v>
+      </c>
+      <c r="H358">
+        <v>103.8591065</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="7" t="s">
         <v>777</v>
       </c>
@@ -11535,8 +13689,14 @@
       <c r="F359" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G359">
+        <v>1.2917921999999999</v>
+      </c>
+      <c r="H359">
+        <v>103.8571184</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="8" t="s">
         <v>799</v>
       </c>
@@ -11555,8 +13715,14 @@
       <c r="F360" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G360">
+        <v>1.2916084000000001</v>
+      </c>
+      <c r="H360">
+        <v>103.8449933</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="7" t="s">
         <v>320</v>
       </c>
@@ -11575,8 +13741,14 @@
       <c r="F361" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G361">
+        <v>1.3200635000000001</v>
+      </c>
+      <c r="H361">
+        <v>103.8445845</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="8" t="s">
         <v>814</v>
       </c>
@@ -11595,8 +13767,14 @@
       <c r="F362" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G362">
+        <v>1.2860883999999999</v>
+      </c>
+      <c r="H362">
+        <v>103.85405710000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="7" t="s">
         <v>1135</v>
       </c>
@@ -11615,8 +13793,14 @@
       <c r="F363" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G363">
+        <v>1.2975022</v>
+      </c>
+      <c r="H363">
+        <v>103.8385749</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="8" t="s">
         <v>143</v>
       </c>
@@ -11635,8 +13819,14 @@
       <c r="F364" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G364">
+        <v>1.3079719000000001</v>
+      </c>
+      <c r="H364">
+        <v>103.8282932</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="7" t="s">
         <v>1136</v>
       </c>
@@ -11655,8 +13845,14 @@
       <c r="F365" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G365">
+        <v>1.3065228</v>
+      </c>
+      <c r="H365">
+        <v>103.827668</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="8" t="s">
         <v>841</v>
       </c>
@@ -11675,8 +13871,14 @@
       <c r="F366" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G366">
+        <v>1.2924176000000001</v>
+      </c>
+      <c r="H366">
+        <v>103.85858519999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
         <v>166</v>
       </c>
@@ -11695,8 +13897,14 @@
       <c r="F367" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G367">
+        <v>1.3075452999999999</v>
+      </c>
+      <c r="H367">
+        <v>103.8299672</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="8" t="s">
         <v>1137</v>
       </c>
@@ -11715,8 +13923,14 @@
       <c r="F368" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G368">
+        <v>1.3000320000000001</v>
+      </c>
+      <c r="H368">
+        <v>103.86057219999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
         <v>324</v>
       </c>
@@ -11735,8 +13949,14 @@
       <c r="F369" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G369">
+        <v>1.3107101999999999</v>
+      </c>
+      <c r="H369">
+        <v>103.85574010000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="8" t="s">
         <v>851</v>
       </c>
@@ -11755,8 +13975,14 @@
       <c r="F370" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G370">
+        <v>1.2856437999999999</v>
+      </c>
+      <c r="H370">
+        <v>103.8464647</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
         <v>854</v>
       </c>
@@ -11775,8 +14001,14 @@
       <c r="F371" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G371">
+        <v>1.2921301000000001</v>
+      </c>
+      <c r="H371">
+        <v>103.8499727</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="8" t="s">
         <v>182</v>
       </c>
@@ -11795,8 +14027,14 @@
       <c r="F372" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G372">
+        <v>1.3031364999999999</v>
+      </c>
+      <c r="H372">
+        <v>103.8360737</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="7" t="s">
         <v>869</v>
       </c>
@@ -11815,8 +14053,14 @@
       <c r="F373" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G373">
+        <v>1.294889</v>
+      </c>
+      <c r="H373">
+        <v>103.854483</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
         <v>1138</v>
       </c>
@@ -11835,8 +14079,14 @@
       <c r="F374" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G374">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H374">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
         <v>186</v>
       </c>
@@ -11855,8 +14105,14 @@
       <c r="F375" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G375">
+        <v>1.3047203000000001</v>
+      </c>
+      <c r="H375">
+        <v>103.82489390000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="8" t="s">
         <v>872</v>
       </c>
@@ -11875,8 +14131,14 @@
       <c r="F376" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G376">
+        <v>1.2985226999999999</v>
+      </c>
+      <c r="H376">
+        <v>103.8491411</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="7" t="s">
         <v>189</v>
       </c>
@@ -11895,8 +14157,14 @@
       <c r="F377" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G377">
+        <v>1.3069694999999999</v>
+      </c>
+      <c r="H377">
+        <v>103.8319667</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="8" t="s">
         <v>199</v>
       </c>
@@ -11915,8 +14183,14 @@
       <c r="F378" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G378">
+        <v>1.3109649999999999</v>
+      </c>
+      <c r="H378">
+        <v>103.8264894</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="7" t="s">
         <v>1140</v>
       </c>
@@ -11935,8 +14209,14 @@
       <c r="F379" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G379">
+        <v>1.3118243999999999</v>
+      </c>
+      <c r="H379">
+        <v>103.8364761</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="8" t="s">
         <v>209</v>
       </c>
@@ -11955,8 +14235,14 @@
       <c r="F380" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G380">
+        <v>1.3052151000000001</v>
+      </c>
+      <c r="H380">
+        <v>103.8329675</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="7" t="s">
         <v>947</v>
       </c>
@@ -11975,8 +14261,14 @@
       <c r="F381" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G381">
+        <v>1.2884308</v>
+      </c>
+      <c r="H381">
+        <v>103.84580529999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
         <v>1142</v>
       </c>
@@ -11995,8 +14287,14 @@
       <c r="F382" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G382">
+        <v>1.2936866</v>
+      </c>
+      <c r="H382">
+        <v>103.8533912</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="7" t="s">
         <v>972</v>
       </c>
@@ -12015,8 +14313,14 @@
       <c r="F383" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G383">
+        <v>1.2909392</v>
+      </c>
+      <c r="H383">
+        <v>103.8599895</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="8" t="s">
         <v>1143</v>
       </c>
@@ -12035,8 +14339,14 @@
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G384">
+        <v>1.3037177</v>
+      </c>
+      <c r="H384">
+        <v>103.9029408</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="7" t="s">
         <v>250</v>
       </c>
@@ -12055,8 +14365,14 @@
       <c r="F385" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G385">
+        <v>1.30718</v>
+      </c>
+      <c r="H385">
+        <v>103.8355304</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="8" t="s">
         <v>254</v>
       </c>
@@ -12075,8 +14391,14 @@
       <c r="F386" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G386">
+        <v>1.3058932999999999</v>
+      </c>
+      <c r="H386">
+        <v>103.8309201</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="8" t="s">
         <v>1144</v>
       </c>
@@ -12095,8 +14417,14 @@
       <c r="F387" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G387">
+        <v>1.3187065</v>
+      </c>
+      <c r="H387">
+        <v>103.7064417</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="7" t="s">
         <v>1146</v>
       </c>
@@ -12115,8 +14443,14 @@
       <c r="F388" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" ht="211.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G388">
+        <v>1.362212</v>
+      </c>
+      <c r="H388">
+        <v>103.974025</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="8" t="s">
         <v>1149</v>
       </c>
@@ -12135,8 +14469,14 @@
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G389">
+        <v>1.2929269000000001</v>
+      </c>
+      <c r="H389">
+        <v>103.8487246</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
         <v>1151</v>
       </c>
@@ -12155,8 +14495,14 @@
       <c r="F390" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G390">
+        <v>1.2841526000000001</v>
+      </c>
+      <c r="H390">
+        <v>103.781892</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="8" t="s">
         <v>1153</v>
       </c>
@@ -12175,8 +14521,14 @@
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G391">
+        <v>1.4446057000000001</v>
+      </c>
+      <c r="H391">
+        <v>103.7304524</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="7" t="s">
         <v>1155</v>
       </c>
@@ -12195,8 +14547,14 @@
       <c r="F392" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G392">
+        <v>1.2665093999999999</v>
+      </c>
+      <c r="H392">
+        <v>103.8020649</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="8" t="s">
         <v>1157</v>
       </c>
@@ -12215,8 +14573,14 @@
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G393">
+        <v>1.4071115999999999</v>
+      </c>
+      <c r="H393">
+        <v>103.78453570000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="7" t="s">
         <v>1158</v>
       </c>
@@ -12235,8 +14599,14 @@
       <c r="F394" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G394">
+        <v>1.3527256000000001</v>
+      </c>
+      <c r="H394">
+        <v>103.7688464</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="8" t="s">
         <v>1159</v>
       </c>
@@ -12255,8 +14625,14 @@
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G395">
+        <v>1.2718742000000001</v>
+      </c>
+      <c r="H395">
+        <v>103.81921250000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="7" t="s">
         <v>1161</v>
       </c>
@@ -12275,8 +14651,14 @@
       <c r="F396" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G396">
+        <v>1.296613</v>
+      </c>
+      <c r="H396">
+        <v>103.8485091</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="8" t="s">
         <v>1163</v>
       </c>
@@ -12295,8 +14677,14 @@
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G397">
+        <v>1.2797411999999999</v>
+      </c>
+      <c r="H397">
+        <v>103.79420469999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="7" t="s">
         <v>879</v>
       </c>
@@ -12315,8 +14703,14 @@
       <c r="F398" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" ht="238.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G398">
+        <v>1.255179</v>
+      </c>
+      <c r="H398">
+        <v>103.8218107</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="8" t="s">
         <v>33</v>
       </c>
@@ -12335,8 +14729,14 @@
       <c r="F399" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" ht="238.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G399">
+        <v>1.256642</v>
+      </c>
+      <c r="H399">
+        <v>103.8118379</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="7" t="s">
         <v>34</v>
       </c>
@@ -12355,8 +14755,14 @@
       <c r="F400" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G400">
+        <v>1.2494041</v>
+      </c>
+      <c r="H400">
+        <v>103.8303209</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="8" t="s">
         <v>1170</v>
       </c>
@@ -12375,8 +14781,14 @@
       <c r="F401" s="2" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" ht="238.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G401">
+        <v>1.2973507</v>
+      </c>
+      <c r="H401">
+        <v>103.8507467</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="7" t="s">
         <v>1175</v>
       </c>
@@ -12395,8 +14807,14 @@
       <c r="F402" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G402">
+        <v>1.3138396999999999</v>
+      </c>
+      <c r="H402">
+        <v>103.8159136</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A403" s="8" t="s">
         <v>1178</v>
       </c>
@@ -12415,8 +14833,14 @@
       <c r="F403" s="2" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G403">
+        <v>1.2798527</v>
+      </c>
+      <c r="H403">
+        <v>103.84505799999999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="7" t="s">
         <v>35</v>
       </c>
@@ -12435,8 +14859,14 @@
       <c r="F404" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G404">
+        <v>1.2892988000000001</v>
+      </c>
+      <c r="H404">
+        <v>103.86313680000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="8" t="s">
         <v>1183</v>
       </c>
@@ -12455,8 +14885,14 @@
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="G405">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H405">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
         <v>1185</v>
       </c>
@@ -12475,8 +14911,14 @@
       <c r="F406" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="G406">
+        <v>1.3331687000000001</v>
+      </c>
+      <c r="H406">
+        <v>103.7356443</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>1186</v>
       </c>
@@ -12487,8 +14929,14 @@
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
-    </row>
-    <row r="408" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G407">
+        <v>1.3326903999999999</v>
+      </c>
+      <c r="H407">
+        <v>103.67894320000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="7" t="s">
         <v>1187</v>
       </c>
@@ -12499,8 +14947,14 @@
       <c r="D408" s="12"/>
       <c r="E408" s="12"/>
       <c r="F408" s="12"/>
-    </row>
-    <row r="409" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G408">
+        <v>1.3351884000000001</v>
+      </c>
+      <c r="H408">
+        <v>103.7351693</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="8" t="s">
         <v>1189</v>
       </c>
@@ -12519,8 +14973,14 @@
       <c r="F409" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G409">
+        <v>1.4166752</v>
+      </c>
+      <c r="H409">
+        <v>103.7619246</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="7" t="s">
         <v>1190</v>
       </c>
@@ -12539,8 +14999,14 @@
       <c r="F410" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G410">
+        <v>1.4021872</v>
+      </c>
+      <c r="H410">
+        <v>103.78806059999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="8" t="s">
         <v>1192</v>
       </c>
@@ -12559,8 +15025,14 @@
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" ht="264.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G411">
+        <v>1.4464303999999999</v>
+      </c>
+      <c r="H411">
+        <v>103.723404</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="7" t="s">
         <v>1194</v>
       </c>
@@ -12579,8 +15051,14 @@
       <c r="F412" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G412">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="H412">
+        <v>103.819836</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="8" t="s">
         <v>1196</v>
       </c>
@@ -12598,6 +15076,12 @@
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G413">
+        <v>1.2943876000000001</v>
+      </c>
+      <c r="H413">
+        <v>103.8458033</v>
       </c>
     </row>
   </sheetData>
